--- a/Materials/CBASS_Parts_List.xlsx
+++ b/Materials/CBASS_Parts_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2917054de0bc48a0/Documents/Barshis_Lab/CBASS_Manual/Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2917054de0bc48a0/Documents/Barshis_Lab/BarshisLab_Github/CBASS_Manual/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6A953C9003A2749FC107CC9D4D61295D6BD9AC6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291F1FE2-71DF-4EAD-81D4-F19A80474B49}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6A953C9003A2749FC107CC9D4D61295D6BD9AC6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3C64105-6635-4D5C-8C66-D7171C917982}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1081,7 +1081,7 @@
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="10"/>
@@ -29648,6 +29648,7 @@
     <hyperlink ref="F51" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="F62" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="F29" r:id="rId29" xr:uid="{6B2C8CED-3408-4A95-9E5E-893891A37281}"/>
+    <hyperlink ref="F4" r:id="rId30" xr:uid="{78E454CC-EFC9-4B18-81B6-BE01FE6120B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/Materials/CBASS_Parts_List.xlsx
+++ b/Materials/CBASS_Parts_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2917054de0bc48a0/Documents/Barshis_Lab/BarshisLab_Github/CBASS_Manual/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6A953C9003A2749FC107CC9D4D61295D6BD9AC6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3C64105-6635-4D5C-8C66-D7171C917982}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6A953C9003A2749FC107CC9D4D61295D6BD9AC6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49B36079-43C6-42C6-B8E5-89BB060082FF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1243,7 +1243,7 @@
       <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="10"/>
@@ -29649,6 +29649,7 @@
     <hyperlink ref="F62" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="F29" r:id="rId29" xr:uid="{6B2C8CED-3408-4A95-9E5E-893891A37281}"/>
     <hyperlink ref="F4" r:id="rId30" xr:uid="{78E454CC-EFC9-4B18-81B6-BE01FE6120B7}"/>
+    <hyperlink ref="F8" r:id="rId31" xr:uid="{6DAB66AF-D7A0-46A0-8997-CC26311CA373}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/Materials/CBASS_Parts_List.xlsx
+++ b/Materials/CBASS_Parts_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2917054de0bc48a0/Documents/Barshis_Lab/BarshisLab_Github/CBASS_Manual/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_6A953C9003A2749FC107CC9D4D61295D6BD9AC6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49B36079-43C6-42C6-B8E5-89BB060082FF}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_6A953C9003A2749FC107CC9D4D61295D6BD9AC6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB916CBF-2EC4-4CEC-B53C-BB2326CDF554}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2428,7 +2428,7 @@
       <c r="E38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="37" t="s">
         <v>79</v>
       </c>
       <c r="G38" s="10"/>
@@ -29650,6 +29650,7 @@
     <hyperlink ref="F29" r:id="rId29" xr:uid="{6B2C8CED-3408-4A95-9E5E-893891A37281}"/>
     <hyperlink ref="F4" r:id="rId30" xr:uid="{78E454CC-EFC9-4B18-81B6-BE01FE6120B7}"/>
     <hyperlink ref="F8" r:id="rId31" xr:uid="{6DAB66AF-D7A0-46A0-8997-CC26311CA373}"/>
+    <hyperlink ref="F38" r:id="rId32" display="https://www.amazon.com/dp/B00CEMGMMM/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B00CEMGMMM&amp;pd_rd_w=kWxyy&amp;pf_rd_p=57cbdc41-b731-4e3d-aca7-49078b13a07b&amp;pd_rd_wg=A35Tw&amp;pf_rd_r=BKVQCZ00CX1TZ8CS82T0&amp;pd_rd_r=3f07b86a-1089-4929-a94b-f4b68905ee8e&amp;s=pc&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExQzBZS0lDTTY2SzhIJmVuY3J5cHRlZElkPUEwMDY5NTU3MUFXSVJTSE5aV01QMSZlbmNyeXB0ZWRBZElkPUEwODU5MjYwSkRGWEY3VVVDVTdHJndpZGdldE5hbWU9c3BfZGV0YWlsX3RoZW1hdGljJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{6DF69D21-36E8-466A-9BC0-1A1D3E883CAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
